--- a/documentation/EPO_User_Stories.xlsx
+++ b/documentation/EPO_User_Stories.xlsx
@@ -77,10 +77,10 @@
     <t xml:space="preserve">ROW(S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nation selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a citizen, I want to select  the nation related to my legal citizenship, so that I can navigate in the page hosted by that nation</t>
+    <t xml:space="preserve">Role selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to select the citizen or the national representative role, so that I can enter and navigate in the page hosted by that nation.</t>
   </si>
   <si>
     <t xml:space="preserve">4 Low</t>
@@ -690,12 +690,12 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.63"/>
